--- a/testFile/login/cmslogin.xlsx
+++ b/testFile/login/cmslogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\project\live\function_test(1)\﻿function_test\testFile\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128FB52B-F280-432C-AB18-145323FB55B3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5EE85-3A2A-4526-BB04-2F050830E626}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>标题</t>
   </si>
@@ -57,9 +57,6 @@
     <t>login100005</t>
   </si>
   <si>
-    <t>login100006</t>
-  </si>
-  <si>
     <t>账号和密码不能为空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,14 +81,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>cs003@auto.cn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>助教账号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学员账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,10 +98,6 @@
   </si>
   <si>
     <t>账号为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或密码错误。1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +477,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -530,11 +515,11 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -542,14 +527,14 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,17 +542,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,17 +560,17 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>123</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,36 +578,26 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <v>123456</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>111</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>123456</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
